--- a/src/data/渋沢栄一日記リスト_kim_shige.xlsx
+++ b/src/data/渋沢栄一日記リスト_kim_shige.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_shibusawa/lab1-data/src/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAE677-242A-1843-9346-D85EC6D214BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1290" windowWidth="29040" windowHeight="7635"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="渋沢栄一日記リスト_TEI用210126" sheetId="4" r:id="rId1"/>
@@ -13,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">渋沢栄一日記リスト!$A$6:$T$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">渋沢栄一日記リスト_TEI用210126!$A$6:$V$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">渋沢栄一日記リスト_TEI用210126!$A$6:$V$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="433">
   <si>
     <t>http://base1.nijl.ac.jp/~jituhaku/37TGH/37TGH-0955-0002-0000_00.jpg</t>
   </si>
@@ -236,15 +242,15 @@
   </si>
   <si>
     <t>自慶応四年六月十四日至明治元年十一月二日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>自明治元年十一月三日至明治二年正月十八日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>自明治二年十月二十一日至同年十一月十九日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正七年　一月一日―四月十三日</t>
@@ -278,15 +284,15 @@
   </si>
   <si>
     <t>大正四年　一月一日―一月三日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正六年　一月一日―三月二十二日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正十年　一月一日―一月二十二日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>文部省史料館</t>
@@ -302,84 +308,84 @@
     <rPh sb="0" eb="2">
       <t>テチョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>和綴小形横帳</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>文部省史料館</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原本欠</t>
   </si>
   <si>
     <t>机上日記</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（昭和六年ハ日記ハ存スルモ全年記入ナシ）</t>
   </si>
   <si>
     <t>当用日記（博文館発行）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>藤木喜久馬</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>高木一夫</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>木下清一郎</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>岡村千馬太</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>藤木</t>
   </si>
   <si>
     <t>幸田成友</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>木下</t>
   </si>
   <si>
     <t>中野重秀</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>岡村</t>
     <rPh sb="0" eb="2">
       <t>オカムラ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>藤木</t>
     <rPh sb="0" eb="2">
       <t>フジキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>岡村・木下</t>
     <rPh sb="3" eb="5">
       <t>キノシタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中野</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中野・日景珠子</t>
@@ -389,35 +395,35 @@
     <rPh sb="1" eb="2">
       <t>ノ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>日景</t>
     <rPh sb="0" eb="2">
       <t>ヒカゲ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>木下</t>
     <rPh sb="0" eb="2">
       <t>キノシタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>筆写</t>
     <rPh sb="0" eb="2">
       <t>ヒッシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>校訂</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>慶応2-明治2</t>
@@ -427,14 +433,14 @@
     <rPh sb="4" eb="6">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治2</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>写本巻数</t>
@@ -444,14 +450,14 @@
     <rPh sb="2" eb="4">
       <t>カンスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>年次</t>
     <rPh sb="0" eb="2">
       <t>ネンジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治17/明治19</t>
@@ -461,91 +467,91 @@
     <rPh sb="5" eb="7">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治32</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治33</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治34</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治35</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治38</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治39</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治40</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治41</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治42</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治43</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治44</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治45</t>
     <rPh sb="0" eb="2">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治36-明治37</t>
@@ -555,7 +561,7 @@
     <rPh sb="5" eb="7">
       <t>メイジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正2-大正3</t>
@@ -565,7 +571,7 @@
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正4-大正5</t>
@@ -575,7 +581,7 @@
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正6-大正7</t>
@@ -585,7 +591,7 @@
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正8-大正9</t>
@@ -595,7 +601,7 @@
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正10-大正11</t>
@@ -605,7 +611,7 @@
     <rPh sb="5" eb="7">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正12/大正14</t>
@@ -615,7 +621,7 @@
     <rPh sb="5" eb="7">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正15-昭和5</t>
@@ -625,14 +631,14 @@
     <rPh sb="5" eb="7">
       <t>ショウワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>収録</t>
     <rPh sb="0" eb="2">
       <t>シュウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>別巻第1</t>
@@ -642,7 +648,7 @@
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>別巻第2</t>
@@ -652,11 +658,11 @@
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本編1巻</t>
@@ -666,22 +672,22 @@
     <rPh sb="3" eb="4">
       <t>カン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治十七年（　西遊日記　五月二十八日―六月十七日　：　甲申京摂巡回日記　五月三十一日―七月一日）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治十九年（　四日市伏木新潟巡回紀行　五月二十六日―六月十九日　：　　京坂巡回紀行　十二月八日―十二月十七日）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>形態</t>
     <rPh sb="0" eb="2">
       <t>ケイタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>所蔵（2020年現在）</t>
@@ -694,14 +700,14 @@
     <rPh sb="8" eb="10">
       <t>ゲンザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>生前</t>
     <rPh sb="0" eb="2">
       <t>セイゼン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>所蔵（伝記資料別巻第1発行1965年時）</t>
@@ -729,7 +735,7 @@
     <rPh sb="18" eb="19">
       <t>トキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>航西日記　［慶応3年正月11日～11月22日]</t>
@@ -751,7 +757,7 @@
     <rPh sb="21" eb="22">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>巴里御在館日記　[慶応3年10月24日～慶応4年8月26日]</t>
@@ -779,7 +785,7 @@
     <rPh sb="28" eb="29">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>御用日記　[慶応3年8月6日～11月22日］</t>
@@ -801,7 +807,7 @@
     <rPh sb="20" eb="21">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>写本「渋沢栄一御用日記　自慶応3年　正月至同年11月」（史料編纂所維新史料引継本-IIほ-17）/写本「仏行日記」「御巡国日記」（昭武旧蔵・松戸市戸定歴史館）</t>
@@ -811,39 +817,39 @@
     <rPh sb="49" eb="51">
       <t>シャホン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>写本「巴里御在館日記」（史料編纂所 維新史料引継本-IIほ-18）</t>
     <rPh sb="0" eb="2">
       <t>シャホン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「第一号」（伝記資料別巻第1）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「第二号」（伝記資料別巻第1）</t>
     <rPh sb="2" eb="3">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「第三号」（伝記資料別巻第1）</t>
     <rPh sb="2" eb="3">
       <t>サン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「第一銀行用箋」（第一銀行京都支店所蔵）に書かれたものは「右手帖ヲ整理補足ス」（伝記資料別巻第1）</t>
@@ -859,7 +865,7 @@
     <rPh sb="21" eb="22">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>国文学研究資料館（日本実業史博物館コレクション）:37TGH-0955-0001-0000</t>
@@ -953,7 +959,7 @@
   </si>
   <si>
     <t>不明</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（編纂終了後発見サル）（伝記資料別巻第1）</t>
@@ -969,19 +975,19 @@
     <rPh sb="18" eb="19">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（大正五年ハ日記ハ存スルモ全年記入ナシ）（伝記資料別巻第1）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（大正一一年ハ原本ナシ）（伝記資料別巻第1）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（大正一三年ハ原本ナシ）（伝記資料別巻第1）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大塚武松 編『日本史籍協会叢書：渋沢栄一滞仏日記』（日本史籍協会、1928）収載</t>
@@ -1003,14 +1009,14 @@
     <rPh sb="38" eb="40">
       <t>シュウサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大塚武松 編『日本史籍協会叢書：渋沢栄一滞仏日記』（日本史籍協会、1928）収載</t>
     <rPh sb="38" eb="40">
       <t>シュウサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>青淵漁夫,靄山樵者 録『航西日記』巻之1-6（耐寒同社, 1871-1873）→『青淵先生六十年史 : 一名・近世実業発達史. 第１巻』（竜門社、1900.02）p209-382「第六章 外国行 附録 航西日記」として、叙・「帰東雑草」など抜かして収載→大塚武松 編『日本史籍協会叢書：渋沢栄一滞仏日記』（日本史籍協会、1928）収載　※編纂物である（関根2014）</t>
@@ -1023,7 +1029,7 @@
     <rPh sb="176" eb="178">
       <t>セキネ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原本欠/写本「水戸藩主徳川民部大輔昭武　巴里御在館日記　全」※維新史料編纂会作成（関根2014）</t>
@@ -1096,22 +1102,22 @@
     <rPh sb="41" eb="43">
       <t>セキネ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原本欠</t>
     <rPh sb="0" eb="2">
       <t>ゲンポン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原本欠</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>－</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>『渋沢栄一滞仏日記』1928に「御巡国日録」として収録/徳川昭武に写本「仏行日記」「御巡国日記」として献上/栄一の手元に「渋沢栄一　御用日記」※元は「御用日記」（1867.02.03-04.12）＋「御巡国日記」（1867.09.03-12.17）の別の日記を一綴で維新史料編纂会へ貸し出したものか（関根2014）</t>
@@ -1184,7 +1190,7 @@
     <rPh sb="68" eb="70">
       <t>ニッキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>青淵漁夫,靄山樵者 録『航西日記』巻之1-6（耐寒同社, 1871-1873）として刊行、杉浦の記録とあわせた編纂物</t>
@@ -1203,7 +1209,7 @@
     <rPh sb="57" eb="58">
       <t>ブツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>渋沢家所蔵「英国御巡行日録」草稿（『渋沢栄一滞仏日記』1928）/「先生自筆の英国御巡幸日誌は焼失を免れたと承つた」（幸田1933.10-編纂室より02）</t>
@@ -1273,7 +1279,7 @@
     <rPh sb="71" eb="72">
       <t>シツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>謄写済（1933.10-竜門雑誌541-編纂室たより05）</t>
@@ -1283,7 +1289,7 @@
     <rPh sb="2" eb="3">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>謄写済（1933.12-竜門雑誌543-編纂室たより07）</t>
@@ -1293,7 +1299,7 @@
     <rPh sb="2" eb="3">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>石井健吾・坂谷芳郎「青淵先生伝記編纂室たより」（八）（『竜門雑誌』553号、1934.10）では「子爵家及び社中より提供せられたるもの先生の日記手帳20余冊」</t>
@@ -1369,7 +1375,7 @@
     <rPh sb="77" eb="78">
       <t>サツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>『伝記資料』別巻第一の解題では「日記」「31冊」</t>
@@ -1397,7 +1403,7 @@
     <rPh sb="22" eb="23">
       <t>サツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治2年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1410,7 +1416,7 @@
     <rPh sb="4" eb="5">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治元年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1423,7 +1429,7 @@
     <rPh sb="4" eb="5">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原本欠/写本「幕臣渋沢栄一御用日記　全」※維新史料編纂会作成（関根2014）/［写本より？］慶応3年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1502,7 +1508,7 @@
     <rPh sb="74" eb="75">
       <t>シツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治17年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1515,7 +1521,7 @@
     <rPh sb="5" eb="6">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治19年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1528,7 +1534,7 @@
     <rPh sb="5" eb="6">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治38年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1541,7 +1547,7 @@
     <rPh sb="5" eb="6">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治36年度・37年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1560,60 +1566,60 @@
     <rPh sb="10" eb="11">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>明治45年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正2年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正3年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正4年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正6年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正7年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正8年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正9年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正10年度・11年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1626,28 +1632,28 @@
     <rPh sb="10" eb="11">
       <t>ド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正12年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正14年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正15年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>昭和2年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1657,7 +1663,7 @@
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>昭和3年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1667,7 +1673,7 @@
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>昭和4年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1677,7 +1683,7 @@
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>昭和5年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
@@ -1687,149 +1693,149 @@
     <rPh sb="3" eb="4">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>慶応3年度、謄写済（1934.10-竜門雑誌553-編纂室たより08）</t>
   </si>
   <si>
     <t>明治四十年　一月一日―十二月三十一日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正二年　一月一日―三月十一日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1900.01-1901.05</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1899.01.01-12.31</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1867.01.11-11.22</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1867.10.24-1868.08.26</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1867.08.06-11.22</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1867.11.06-11.22</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1868.11.03-1869.01.18</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1884.05.28-06.17/05.30-07.01</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1886.05.26-06.19/12.08-12.17</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1902.08-1903.11</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1903.11-1904.04</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1905.01.01-12.31</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1906.01.01-07.15</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1907.01.01-12.31</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1908.01.01-12.31</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1910.01.01-11.19</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1911.01.01-12.31</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1912.01.01-07.02</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1913.01.01-03.11</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1914.01.01-06.14</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1917.01.01-03.22</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1918.01.01-04.13</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1919.01.01-08.20</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1920.01.01-03.14</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1925.01.01-04.10</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1926.01.01-04.03</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1927.01.01-03.12</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1928.01.01-03.05</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1929.01.01-01.04</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1869.10.21-11.19　※明治5年12月2日（1872年12月31日）まで太陰太陽暦（以下、旧暦）を採用</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1901.05-1902.08</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>－</t>
   </si>
   <si>
     <t>－</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1855,15 +1861,15 @@
       </rPr>
       <t>-11.02</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正五年　（大正5年ハ日記ハ存スルモ全年記入ナシ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正十一年　（大正11年ハ原本ナシ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>[大正十三年　 （大正13年ハ原本ナシ） ]</t>
@@ -1873,7 +1879,7 @@
     <rPh sb="3" eb="6">
       <t>ジュウサンネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>昭和六年　（昭和6年ハ日記ハ存スルモ全年記入ナシ）</t>
@@ -1883,11 +1889,11 @@
     <rPh sb="2" eb="4">
       <t>ロクネン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1946,7 +1952,7 @@
     <rPh sb="89" eb="90">
       <t>サツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1970,7 +1976,7 @@
     <rPh sb="14" eb="16">
       <t>セキネ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2053,7 +2059,7 @@
     <rPh sb="55" eb="56">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2100,7 +2106,7 @@
     <rPh sb="37" eb="38">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2165,7 +2171,7 @@
     <rPh sb="64" eb="66">
       <t>セキネ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2203,34 +2209,34 @@
       </rPr>
       <t>01.08</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>和暦</t>
     <rPh sb="0" eb="2">
       <t>ワレキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>--</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>自明治三十六年十一月至明治三十七年四月</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1915.01.01-1916.01.03</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1923.01.01-1924.03.06</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1921.01.01-1922.01.22</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>満年齢</t>
@@ -2240,7 +2246,7 @@
     <rPh sb="1" eb="3">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2263,7 +2269,7 @@
     <rPh sb="4" eb="6">
       <t>キュウレキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2307,7 +2313,7 @@
     <rPh sb="28" eb="30">
       <t>タイヨ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2339,7 +2345,7 @@
     <rPh sb="14" eb="15">
       <t>ボツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2377,7 +2383,7 @@
     <rPh sb="14" eb="15">
       <t>ボツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -2409,11 +2415,11 @@
     <rPh sb="19" eb="20">
       <t>ボツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1909.01.01-10.05</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「父の日記」（『実業之日本』1939）に、1/1-9/24を抜粋で掲載／渡米実業団の記述</t>
@@ -2447,7 +2453,7 @@
     <rPh sb="42" eb="44">
       <t>キジュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「先生の滞仏中の日記」「巴里御在館日記の種本であるといへよう」（幸田1933.10-竜門雑誌536-編纂室より02）/「高田利吉氏のお世話で以て、段々と色んな日記が出て参りました」（幸田1935）</t>
@@ -2478,15 +2484,15 @@
     <rPh sb="44" eb="46">
       <t>ザッシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「高田利吉氏のお世話で以て、段々と色んな日記が出て参りました」（幸田1935）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「先生の御居間の戸棚」か（幸田1935）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「先生の御居間の戸棚」か（幸田1935）/「私ども近親で一冊づゝ分けることにしたから、私のところへも明治四十二年の分が届けられた」（渋沢秀雄1939）</t>
@@ -2496,11 +2502,11 @@
     <rPh sb="68" eb="70">
       <t>ヒデオ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020.09memo</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>渋沢栄一記念財団　※桑原さんに確認済</t>
@@ -2513,7 +2519,7 @@
     <rPh sb="17" eb="18">
       <t>スミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>渋沢栄一日記リスト</t>
@@ -2526,7 +2532,7 @@
     <rPh sb="4" eb="6">
       <t>ニッキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>渋沢栄一日記リスト</t>
@@ -2539,15 +2545,15 @@
     <rPh sb="4" eb="6">
       <t>ニッキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>37TGH 　//　 37TGH/0955-0001-0000 　//　　//　 中項目：渋沢／小項目：栄一編著 　//　(渋沢栄一日記)　(明治元年6月14日～同年11月3日)　//　 無年 　//　　//　　//　</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://clioimg.hi.u-tokyo.ac.jp/viewer/list/idata/T16/II_230ho_/18/?m=limit</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像公開URL</t>
@@ -2557,7 +2563,7 @@
     <rPh sb="2" eb="4">
       <t>コウカイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※史料編纂所の資料詳細情報はhttps://wwwap.hi.u-tokyo.ac.jp/ships/shipscontroller</t>
@@ -2576,7 +2582,7 @@
     <rPh sb="11" eb="13">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※国文研の資料詳細情報は各冊ともURL http://base5.nijl.ac.jp/infolib/meta_pub/detail ; 各冊とも3画像 _00.jpg,_01.jpg,03.jpgあるため、表紙画像を仮に採用</t>
@@ -2586,11 +2592,11 @@
     <rPh sb="2" eb="3">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://clioimg.hi.u-tokyo.ac.jp/viewer/list/idata/T16/II_230ho_/17/?m=limit</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像公開機関</t>
@@ -2603,7 +2609,7 @@
     <rPh sb="4" eb="6">
       <t>キカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>国文研実業史博物館コレクションデータベース（http://base5.nijl.ac.jp/infolib/meta_pub/G0000002JITUHAKU ; http://base1.nijl.ac.jp/~jituhaku/）</t>
@@ -2625,7 +2631,7 @@
     <rPh sb="6" eb="9">
       <t>ハクブツカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>東大史料編纂所所蔵史料目録データベース（https://wwwap.hi.u-tokyo.ac.jp/ships/shipscontroller）</t>
@@ -2647,7 +2653,7 @@
     <rPh sb="11" eb="13">
       <t>モクロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.wul.waseda.ac.jp/kotenseki/html/wo07/wo07_03267/index.html</t>
@@ -2711,14 +2717,14 @@
     <rPh sb="117" eb="120">
       <t>ワセダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://dl.ndl.go.jp/info:ndljp/pid/1076220</t>
   </si>
   <si>
     <t>https://dl.ndl.go.jp/info:ndljp/pid/1076220</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>国立国会図書館デジタルコレクション（https://dl.ndl.go.jp/）</t>
@@ -2731,7 +2737,7 @@
     <rPh sb="4" eb="7">
       <t>トショカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://dl.ndl.go.jp/info:ndljp/pid/1686675</t>
@@ -2786,7 +2792,7 @@
     <rPh sb="85" eb="87">
       <t>カンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>国立国会図書館デジタルコレクション（https://dl.ndl.go.jp/） ※図書館送信参加館のみ/刊行書籍の方</t>
@@ -2808,14 +2814,14 @@
     <rPh sb="58" eb="59">
       <t>ホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020.01.26井上さ</t>
     <rPh sb="10" eb="12">
       <t>イノウエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像公開URL2</t>
@@ -2825,7 +2831,7 @@
     <rPh sb="2" eb="4">
       <t>コウカイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画像公開機関2</t>
@@ -2838,7 +2844,7 @@
     <rPh sb="4" eb="6">
       <t>キカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（編纂終了後発見サル）（伝記資料別巻第1） ; 『常設展示図録』（渋沢史料館、2000.11）p32「渋沢栄一の日記 1869年11月5日付」</t>
@@ -2890,14 +2896,14 @@
     <rPh sb="69" eb="70">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020.09memo/2021.01補記memo</t>
     <rPh sb="19" eb="21">
       <t>ホキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DKB10001m</t>
@@ -2907,14 +2913,6 @@
   </si>
   <si>
     <t>DKB10003m</t>
-  </si>
-  <si>
-    <t>DKB10004m
-DKB10005m</t>
-  </si>
-  <si>
-    <t>DKB10006m
-DKB10007m</t>
   </si>
   <si>
     <t>DKB10008m</t>
@@ -3009,15 +3007,15 @@
     <rPh sb="18" eb="20">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正四年　大正五年 一月一日―一月三日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大正十年  大正十一年 一月一日―一月二十二日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>37TGH-0955-0001</t>
@@ -3087,7 +3085,7 @@
   </si>
   <si>
     <t>37TGH-0955-0023</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>37TGH-0955-0024</t>
@@ -3121,7 +3119,7 @@
     <rPh sb="5" eb="7">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>伝記資料ID</t>
@@ -3131,14 +3129,14 @@
     <rPh sb="2" eb="4">
       <t>シリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2020.01.26 キム追記</t>
     <rPh sb="13" eb="15">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://clioimg.hi.u-tokyo.ac.jp/viewer/list/idata/T16/II_230ho_/18/</t>
@@ -3235,16 +3233,68 @@
   </si>
   <si>
     <t>http://base1.nijl.ac.jp/infolib/meta_pub/G0000002JITUHAKU_37TGH-0955-0029-0000_00</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DKB10006m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DKB10007m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DKB10005m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DKB10004m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明治十七年（甲申京摂巡回日記　五月三十一日―七月一日）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明治十九年（四日市伏木新潟巡回紀行　五月二十六日―六月十九日）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明治十九年（京坂巡回紀行　十二月八日―十二月十七日）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明治十七年（西遊日記　五月二十八日―六月十七日）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DKB20014m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自大正二年至昭和六年　1913-1931</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渋沢子爵家 [渋沢家]</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -3347,8 +3397,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3397,6 +3455,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3407,61 +3476,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3482,16 +3557,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3500,33 +3575,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="40% - アクセント 2" xfId="3" builtinId="35"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3534,6 +3629,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3828,49 +3926,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.25" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="47.25" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="121.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="47.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="64.375" customWidth="1"/>
-    <col min="15" max="15" width="22.125" customWidth="1"/>
-    <col min="16" max="16" width="33.875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="64.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1"/>
+    <col min="16" max="16" width="33.83203125" hidden="1" customWidth="1"/>
     <col min="17" max="18" width="16" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.25" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.25" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -3879,23 +3977,23 @@
       </c>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>208</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="V2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -3903,12 +4001,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23">
       <c r="N5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23">
       <c r="B6" t="s">
         <v>139</v>
       </c>
@@ -3919,7 +4017,7 @@
         <v>286</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>280</v>
@@ -3940,7 +4038,7 @@
         <v>147</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>304</v>
@@ -3970,7 +4068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4026,7 +4124,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -4064,7 +4162,7 @@
         <v>201</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O8" s="30" t="s">
         <v>310</v>
@@ -4082,7 +4180,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -4120,7 +4218,7 @@
         <v>201</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O9" s="30" t="s">
         <v>310</v>
@@ -4138,7 +4236,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -4192,7 +4290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4230,10 +4328,10 @@
         <v>160</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>309</v>
@@ -4252,7 +4350,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4290,10 +4388,10 @@
         <v>161</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>309</v>
@@ -4312,7 +4410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>7</v>
       </c>
@@ -4363,7 +4461,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" ht="19">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4380,10 +4478,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>144</v>
+        <v>429</v>
       </c>
       <c r="H14" t="s">
         <v>89</v>
@@ -4401,10 +4499,10 @@
         <v>162</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O14" s="25" t="s">
         <v>309</v>
@@ -4425,203 +4523,179 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:23" ht="21">
+      <c r="C15" s="18"/>
+      <c r="E15" s="36">
+        <v>43</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="36">
+        <v>2</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" s="38"/>
+    </row>
+    <row r="16" spans="1:23" ht="19">
+      <c r="A16">
         <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="18">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="12">
-        <v>46</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s">
-        <v>295</v>
-      </c>
-      <c r="J15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="P15" s="24"/>
-      <c r="S15" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="19">
-        <v>6</v>
+      <c r="C16" s="18">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E16" s="12">
-        <v>59</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>329</v>
+        <v>46</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>422</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>59</v>
+        <v>427</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J16" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K16" t="s">
         <v>87</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="S16" s="16">
-        <v>3</v>
-      </c>
-      <c r="T16" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" t="s">
-        <v>100</v>
-      </c>
-      <c r="V16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="19">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="12">
-        <v>60</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" t="s">
-        <v>205</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="P16" s="24"/>
+      <c r="S16" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" ht="21">
+      <c r="C17" s="18"/>
+      <c r="E17" s="36">
+        <v>46</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="L17" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="O17" s="25" t="s">
+      <c r="L17" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="P17" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="S17" s="16">
-        <v>4</v>
-      </c>
-      <c r="T17" t="s">
-        <v>120</v>
-      </c>
-      <c r="U17" t="s">
-        <v>100</v>
-      </c>
-      <c r="V17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="E18" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
@@ -4636,25 +4710,25 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O18" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S18" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U18" t="s">
         <v>100</v>
@@ -4663,27 +4737,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23">
       <c r="A19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E19" s="12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>94</v>
@@ -4692,58 +4766,60 @@
         <v>296</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
         <v>87</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O19" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="S19" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E20" s="12">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>94</v>
@@ -4752,89 +4828,91 @@
         <v>296</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
         <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="P20" s="24"/>
+      <c r="P20" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="S20" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="U20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="20">
-        <v>11</v>
+      <c r="C21" s="19">
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E21" s="12">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
         <v>296</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
         <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P21" s="24"/>
       <c r="S21" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U21" t="s">
         <v>103</v>
@@ -4843,143 +4921,147 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23">
       <c r="A22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="20">
-        <v>12</v>
+      <c r="C22" s="19">
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E22" s="12">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
         <v>296</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>93</v>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32" t="s">
-        <v>201</v>
+        <v>365</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="P22" s="24"/>
       <c r="S22" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="U22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="12">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
         <v>296</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>93</v>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>87</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32" t="s">
-        <v>201</v>
+        <v>366</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="P23" s="24"/>
       <c r="S23" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>140</v>
       </c>
       <c r="C24" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E24" s="12">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
         <v>266</v>
@@ -4988,7 +5070,7 @@
         <v>296</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>93</v>
@@ -5005,48 +5087,48 @@
       </c>
       <c r="P24" s="24"/>
       <c r="S24" s="16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E25" s="12">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="H25" t="s">
         <v>266</v>
       </c>
       <c r="I25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>93</v>
@@ -5061,140 +5143,136 @@
       <c r="O25" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="P25" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>316</v>
-      </c>
-      <c r="R25" t="s">
-        <v>318</v>
-      </c>
+      <c r="P25" s="24"/>
       <c r="S25" s="16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="I26" t="s">
         <v>296</v>
       </c>
-      <c r="J26" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" t="s">
-        <v>87</v>
+      <c r="J26" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="P26" s="24"/>
       <c r="S26" s="16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="E27" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>296</v>
-      </c>
-      <c r="J27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" t="s">
-        <v>87</v>
+        <v>297</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="O27" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="P27" s="24"/>
+        <v>201</v>
+      </c>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>316</v>
+      </c>
+      <c r="R27" t="s">
+        <v>318</v>
+      </c>
       <c r="S27" s="16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U27" t="s">
         <v>108</v>
@@ -5203,27 +5281,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23">
       <c r="A28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E28" s="12">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>69</v>
+        <v>337</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="H28" t="s">
         <v>96</v>
@@ -5232,29 +5310,29 @@
         <v>296</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
         <v>87</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O28" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P28" s="24"/>
       <c r="S28" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U28" t="s">
         <v>108</v>
@@ -5263,27 +5341,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23">
       <c r="A29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E29" s="12">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
         <v>96</v>
@@ -5292,29 +5370,29 @@
         <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s">
         <v>87</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="O29" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P29" s="24"/>
       <c r="S29" s="16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U29" t="s">
         <v>108</v>
@@ -5323,27 +5401,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23">
       <c r="A30">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E30" s="12">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>70</v>
+        <v>339</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="H30" t="s">
         <v>96</v>
@@ -5352,49 +5430,58 @@
         <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
         <v>87</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O30" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P30" s="24"/>
-      <c r="S30" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S30" s="16">
+        <v>15</v>
+      </c>
+      <c r="T30" t="s">
+        <v>130</v>
+      </c>
+      <c r="U30" t="s">
+        <v>108</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="E31" s="12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="H31" t="s">
         <v>96</v>
@@ -5403,111 +5490,109 @@
         <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s">
         <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="O31" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P31" s="24"/>
       <c r="S31" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="20">
-        <v>22</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>281</v>
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>254</v>
       </c>
       <c r="E32" s="12">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="H32" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="K32" s="30" t="s">
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="O32" s="34" t="s">
+      <c r="L32" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="O32" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="P32" s="24" t="s">
-        <v>192</v>
-      </c>
+      <c r="P32" s="24"/>
       <c r="S32" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22">
       <c r="A33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>141</v>
       </c>
       <c r="C33" s="20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E33" s="12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="H33" t="s">
         <v>96</v>
@@ -5516,115 +5601,111 @@
         <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K33" t="s">
         <v>87</v>
       </c>
       <c r="L33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P33" s="24"/>
       <c r="S33" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22">
       <c r="A34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="20">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>256</v>
+        <v>22</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="E34" s="12">
-        <v>78</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="I34" t="s">
-        <v>296</v>
-      </c>
-      <c r="J34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="I34" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L34" t="s">
-        <v>178</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="O34" s="25" t="s">
+      <c r="L34" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="O34" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="P34" s="24"/>
+      <c r="P34" s="24" t="s">
+        <v>192</v>
+      </c>
       <c r="S34" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="U34" t="s">
-        <v>110</v>
-      </c>
-      <c r="V34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="20">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" s="12">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
         <v>96</v>
@@ -5633,29 +5714,29 @@
         <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K35" t="s">
         <v>87</v>
       </c>
       <c r="L35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O35" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P35" s="24"/>
       <c r="S35" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U35" t="s">
         <v>110</v>
@@ -5664,27 +5745,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22">
       <c r="A36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E36" s="12">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
         <v>96</v>
@@ -5693,19 +5774,19 @@
         <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s">
         <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O36" s="25" t="s">
         <v>309</v>
@@ -5721,27 +5802,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22">
       <c r="A37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>141</v>
       </c>
       <c r="C37" s="20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E37" s="12">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
         <v>96</v>
@@ -5750,29 +5831,29 @@
         <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s">
         <v>87</v>
       </c>
       <c r="L37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O37" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P37" s="24"/>
       <c r="S37" s="16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U37" t="s">
         <v>110</v>
@@ -5781,76 +5862,84 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22">
       <c r="A38">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C38" s="20">
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="E38" s="12">
-        <v>82</v>
-      </c>
-      <c r="F38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="N38" s="30"/>
-      <c r="O38" t="s">
-        <v>201</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>193</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s">
+        <v>180</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="P38" s="24"/>
       <c r="S38" s="16" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="U38" t="s">
+        <v>110</v>
+      </c>
+      <c r="V38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E39" s="12">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="H39" t="s">
         <v>96</v>
@@ -5859,40 +5948,40 @@
         <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s">
         <v>87</v>
       </c>
       <c r="L39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P39" s="24"/>
       <c r="S39" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22">
       <c r="A40">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>142</v>
@@ -5904,13 +5993,13 @@
         <v>142</v>
       </c>
       <c r="E40" s="12">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
         <v>201</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30" t="s">
@@ -5933,33 +6022,33 @@
         <v>201</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22">
       <c r="A41">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="E41" s="12">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
         <v>96</v>
@@ -5968,109 +6057,107 @@
         <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K41" t="s">
         <v>87</v>
       </c>
       <c r="L41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O41" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P41" s="24"/>
-      <c r="S41" s="16" t="s">
+      <c r="S41" s="16">
+        <v>21</v>
+      </c>
+      <c r="T41" t="s">
+        <v>137</v>
+      </c>
+      <c r="U41" t="s">
+        <v>111</v>
+      </c>
+      <c r="V41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="12">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="30" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="20">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" s="12">
-        <v>86</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" t="s">
-        <v>227</v>
-      </c>
-      <c r="K42" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" t="s">
-        <v>184</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="N42" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O42" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="P42" s="24"/>
-      <c r="S42" s="16">
-        <v>22</v>
-      </c>
-      <c r="T42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U42" t="s">
-        <v>111</v>
-      </c>
-      <c r="V42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="K42" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="N42" s="30"/>
+      <c r="O42" t="s">
+        <v>201</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>141</v>
       </c>
       <c r="C43" s="20">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E43" s="12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
         <v>96</v>
@@ -6079,19 +6166,19 @@
         <v>296</v>
       </c>
       <c r="J43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K43" t="s">
         <v>87</v>
       </c>
       <c r="L43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O43" s="25" t="s">
         <v>309</v>
@@ -6101,27 +6188,27 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22">
       <c r="A44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E44" s="12">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
         <v>96</v>
@@ -6130,49 +6217,58 @@
         <v>296</v>
       </c>
       <c r="J44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K44" t="s">
         <v>87</v>
       </c>
       <c r="L44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O44" s="25" t="s">
         <v>309</v>
       </c>
       <c r="P44" s="24"/>
-      <c r="S44" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S44" s="16">
+        <v>22</v>
+      </c>
+      <c r="T44" t="s">
+        <v>138</v>
+      </c>
+      <c r="U44" t="s">
+        <v>111</v>
+      </c>
+      <c r="V44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>141</v>
       </c>
       <c r="C45" s="20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E45" s="12">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
         <v>96</v>
@@ -6181,19 +6277,19 @@
         <v>296</v>
       </c>
       <c r="J45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s">
         <v>87</v>
       </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>309</v>
@@ -6203,27 +6299,27 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22">
       <c r="A46">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="20">
-        <v>34</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>279</v>
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>262</v>
       </c>
       <c r="E46" s="12">
-        <v>90</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>356</v>
+        <v>88</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>96</v>
@@ -6232,19 +6328,19 @@
         <v>296</v>
       </c>
       <c r="J46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K46" t="s">
         <v>87</v>
       </c>
       <c r="L46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O46" s="25" t="s">
         <v>309</v>
@@ -6254,79 +6350,201 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22">
       <c r="A47">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="20">
-        <v>35</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>281</v>
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
       </c>
       <c r="E47" s="12">
-        <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>201</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" t="s">
         <v>296</v>
       </c>
-      <c r="J47" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="K47" s="30" t="s">
+      <c r="J47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K47" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="N47" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="O47" s="34" t="s">
+      <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="O47" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="P47" s="24" t="s">
-        <v>95</v>
-      </c>
+      <c r="P47" s="24"/>
       <c r="S47" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="21"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="9"/>
-      <c r="M48" s="30"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="S48" s="21"/>
+    <row r="48" spans="1:22" ht="38">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="20">
+        <v>34</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="12">
+        <v>90</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+      <c r="J48" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L48" t="s">
+        <v>188</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="O48" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="P48" s="24"/>
+      <c r="S48" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="20">
+        <v>35</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E49" s="12">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="8" customFormat="1" ht="21">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" s="39"/>
+      <c r="O50" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="S50" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:V47"/>
-  <phoneticPr fontId="1"/>
+  <autoFilter ref="A6:V49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6336,31 +6554,31 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="33.25" customWidth="1"/>
-    <col min="9" max="9" width="47.25" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="50.125" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1"/>
+    <col min="9" max="9" width="47.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="50.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.83203125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.75" customWidth="1"/>
-    <col min="17" max="17" width="7.25" style="16" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
-    <col min="19" max="19" width="12.75" customWidth="1"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -6368,17 +6586,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -6386,12 +6604,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20">
       <c r="L5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20">
       <c r="B6" t="s">
         <v>139</v>
       </c>
@@ -6447,7 +6665,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -6492,7 +6710,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -6542,7 +6760,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -6592,7 +6810,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -6637,7 +6855,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6690,7 +6908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6743,7 +6961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>7</v>
       </c>
@@ -6784,7 +7002,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>8</v>
       </c>
@@ -6840,7 +7058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>9</v>
       </c>
@@ -6885,7 +7103,7 @@
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>10</v>
       </c>
@@ -6941,7 +7159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>11</v>
       </c>
@@ -6997,7 +7215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7053,7 +7271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>13</v>
       </c>
@@ -7106,7 +7324,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>14</v>
       </c>
@@ -7159,7 +7377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>15</v>
       </c>
@@ -7212,7 +7430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>16</v>
       </c>
@@ -7259,7 +7477,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>17</v>
       </c>
@@ -7306,7 +7524,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>18</v>
       </c>
@@ -7353,7 +7571,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>19</v>
       </c>
@@ -7409,7 +7627,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>20</v>
       </c>
@@ -7462,7 +7680,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>21</v>
       </c>
@@ -7515,7 +7733,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>22</v>
       </c>
@@ -7568,7 +7786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>23</v>
       </c>
@@ -7621,7 +7839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>24</v>
       </c>
@@ -7665,7 +7883,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>25</v>
       </c>
@@ -7718,7 +7936,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>26</v>
       </c>
@@ -7765,7 +7983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>27</v>
       </c>
@@ -7818,7 +8036,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>28</v>
       </c>
@@ -7868,7 +8086,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>29</v>
       </c>
@@ -7921,7 +8139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>30</v>
       </c>
@@ -7971,7 +8189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>31</v>
       </c>
@@ -8024,7 +8242,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>32</v>
       </c>
@@ -8062,7 +8280,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>33</v>
       </c>
@@ -8115,7 +8333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>34</v>
       </c>
@@ -8153,7 +8371,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>35</v>
       </c>
@@ -8197,7 +8415,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>36</v>
       </c>
@@ -8250,7 +8468,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>37</v>
       </c>
@@ -8294,7 +8512,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>38</v>
       </c>
@@ -8338,7 +8556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>39</v>
       </c>
@@ -8382,7 +8600,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>40</v>
       </c>
@@ -8426,7 +8644,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>41</v>
       </c>
@@ -8473,7 +8691,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" s="8" customFormat="1">
       <c r="C48" s="21"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
@@ -8482,27 +8700,27 @@
       <c r="Q48" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:T47"/>
-  <phoneticPr fontId="1"/>
+  <autoFilter ref="A6:T47" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="70.25" customWidth="1"/>
+    <col min="3" max="3" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>2</v>
       </c>
@@ -8513,7 +8731,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8524,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>4</v>
       </c>
@@ -8535,7 +8753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8546,7 +8764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>6</v>
       </c>
@@ -8557,7 +8775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>7</v>
       </c>
@@ -8568,7 +8786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>8</v>
       </c>
@@ -8579,7 +8797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>9</v>
       </c>
@@ -8590,7 +8808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8601,7 +8819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>11</v>
       </c>
@@ -8612,7 +8830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>12</v>
       </c>
@@ -8623,7 +8841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>13</v>
       </c>
@@ -8634,7 +8852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>14</v>
       </c>
@@ -8645,7 +8863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>15</v>
       </c>
@@ -8656,7 +8874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>16</v>
       </c>
@@ -8667,7 +8885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>17</v>
       </c>
@@ -8678,7 +8896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>18</v>
       </c>
@@ -8689,7 +8907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>19</v>
       </c>
@@ -8700,7 +8918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>20</v>
       </c>
@@ -8711,7 +8929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>21</v>
       </c>
@@ -8722,7 +8940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>22</v>
       </c>
@@ -8733,7 +8951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>23</v>
       </c>
@@ -8744,7 +8962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>24</v>
       </c>
@@ -8755,7 +8973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>25</v>
       </c>
@@ -8766,7 +8984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>26</v>
       </c>
@@ -8777,7 +8995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>27</v>
       </c>
@@ -8788,7 +9006,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>28</v>
       </c>
@@ -8799,7 +9017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>29</v>
       </c>
@@ -8810,7 +9028,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>30</v>
       </c>
@@ -8821,7 +9039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>31</v>
       </c>
@@ -8833,7 +9051,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
